--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1041010.168919625</v>
+        <v>1102791.167203206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>167.8622984089245</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>78.57755555621659</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>166.7504677812283</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>64.4608822023216</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>298.6680693675555</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>214.9311683192073</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.45842836516336</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,16 +1133,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>284.4384800538918</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>23.05870378647979</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1297,16 +1297,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>114.8528499950181</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.9319802379466</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>166.1625368329201</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>132.7957673084547</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170475</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>275.270421411878</v>
+        <v>18.227720276594</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170442</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1853,16 +1853,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602624</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>236.506896611416</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>7.264602967362454</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>113.7218216744508</v>
       </c>
     </row>
     <row r="20">
@@ -2087,10 +2087,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>161.4258646586657</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602631</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436916</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>53.06991172717095</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225808</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170504</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>191.5730642936999</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>103.3456594571958</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.7843377880178</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038665</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3332,7 +3332,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633422</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>135.4170480006338</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>35.34780583513594</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>101.1195220207935</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3898,25 +3898,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888185</v>
       </c>
       <c r="D43" t="n">
-        <v>141.3509401177975</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>48.28314334362894</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4189,13 +4189,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>74.27355480885285</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.7796263806115</v>
+        <v>1670.308256514056</v>
       </c>
       <c r="C2" t="n">
-        <v>259.1979521178798</v>
+        <v>1636.206187737883</v>
       </c>
       <c r="D2" t="n">
-        <v>227.3285713327284</v>
+        <v>1200.296402912328</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>766.5216580706228</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>656.8099308587485</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1264.51257716731</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1739.711376797689</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2375.992959270738</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2375.992959270738</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>2116.770656587754</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>2116.770656587754</v>
       </c>
       <c r="W2" t="n">
-        <v>729.3865718653431</v>
+        <v>1711.915201998788</v>
       </c>
       <c r="X2" t="n">
-        <v>714.2845124850578</v>
+        <v>1696.813142618502</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.0387928251153</v>
+        <v>1692.56742295856</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397434</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>379.7689753175326</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>379.7689753175326</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>987.4716216260942</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>869.7474921874808</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>697.1857806707058</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>531.3077878722285</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>531.3077878722285</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>354.6007338339846</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>189.0094588598123</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423663</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>618.2526391103273</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.73650629124</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448885</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674667</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645008</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2209.484781087795</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1931.051780340901</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>1644.096272211331</v>
       </c>
       <c r="W4" t="n">
-        <v>845.19479826934</v>
+        <v>1372.069867797623</v>
       </c>
       <c r="X4" t="n">
-        <v>599.8030436027525</v>
+        <v>1126.678113131035</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.3833729168607</v>
+        <v>1061.566110906468</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.0361114536327</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1395.498511527331</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>990.6430569383642</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X5" t="n">
-        <v>975.540997558079</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y5" t="n">
-        <v>971.2952778981364</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>947.1238364150125</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>774.5621248982375</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1566.63415311139</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1537.942061378414</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1537.942061378414</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1265.915656964706</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1265.915656964706</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1038.495986278814</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.802348825194</v>
+        <v>1236.87384512419</v>
       </c>
       <c r="C8" t="n">
-        <v>526.6598760086173</v>
+        <v>1202.771776348018</v>
       </c>
       <c r="D8" t="n">
-        <v>90.75009118306176</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176099</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137279</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137279</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137279</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851279</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752956</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743913</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873487</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172583</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925639</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925639</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1815.305152939296</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1410.44969835033</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>991.3072349296403</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y8" t="n">
-        <v>987.0615152696978</v>
+        <v>1259.133011568694</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230032</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851279</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851279</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851279</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851279</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851279</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456949</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447907</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.918693812009</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>379.3569822952339</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4789894967566</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4789894967566</v>
+        <v>511.7125253339923</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851279</v>
+        <v>335.0054712957485</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851279</v>
+        <v>169.4141963215762</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851279</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851279</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296483</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>425.5855996342252</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>880.638300933321</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1322.897104090966</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090966</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061307</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925639</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925639</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223636</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1679.355404223636</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1679.355404223636</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.399896094066</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>1120.373491680358</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>874.9817370137705</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>743.7373125309962</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503957</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111516</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.4711828007311</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C13" t="n">
-        <v>792.909471283956</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D13" t="n">
-        <v>627.0314784854787</v>
+        <v>467.790109783475</v>
       </c>
       <c r="E13" t="n">
-        <v>457.273474736216</v>
+        <v>298.0321060342123</v>
       </c>
       <c r="F13" t="n">
-        <v>280.5664206979721</v>
+        <v>121.3250519959685</v>
       </c>
       <c r="G13" t="n">
-        <v>114.9751457237998</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415475</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V13" t="n">
-        <v>1902.127631285906</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1630.101226872197</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.70947220561</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1157.289801519718</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.87917085155</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2073.736698034973</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.826913209417</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.052168367713</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>776.1847387769203</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7869074001837</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.925458503957</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112633</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.46278304646</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457493</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036804</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336457</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580463</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>467.7901097834748</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935312</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>121.3250519959683</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2472.724095295527</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>2034.581622478951</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1598.671837653395</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E17" t="n">
-        <v>1164.89709281169</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F17" t="n">
-        <v>737.0296632208979</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>335.6318318441616</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503957</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4753.146960239595</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4493.924657556611</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4131.307707490438</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3726.452252901471</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3307.309789480782</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2899.023665780435</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.8119928040993</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C19" t="n">
-        <v>612.2502812873242</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D19" t="n">
-        <v>446.3722884888469</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E19" t="n">
-        <v>446.3722884888469</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F19" t="n">
-        <v>269.6652344506032</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>104.0739594764308</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>104.0739594764308</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5677,10 +5677,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5701,22 +5701,22 @@
         <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2286.856950165739</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418844</v>
+        <v>2286.856950165739</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1999.90144203617</v>
       </c>
       <c r="W19" t="n">
-        <v>1449.442036875566</v>
+        <v>1727.875037622461</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.050282208978</v>
+        <v>1482.483282955874</v>
       </c>
       <c r="Y19" t="n">
-        <v>976.6306115230864</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168566</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847306</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874949</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107588</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.925458503957</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363476</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.38502577451</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777442</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284814</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902378</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
@@ -5914,10 +5914,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165739</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.450585778171</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.450585778171</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
         <v>306.120802776629</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1062.363260807473</v>
+        <v>970.9960463903958</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736207</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751434</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258806</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876369</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134646</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.993304878938</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1481.601550212351</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y25" t="n">
-        <v>1254.18187952646</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,22 +6300,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.8551150562604</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>303.556969623877</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>126.8499155856332</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1533.485159127727</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1288.093404461139</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.673733775247</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>884.5847208382044</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>718.7067280397268</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>548.9487242904642</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>372.2416702522204</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>206.6503952780481</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6631,7 +6631,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O31" t="n">
         <v>2203.220781338905</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1248.965051073967</v>
       </c>
     </row>
     <row r="32">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6880,19 +6880,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6926,7 +6926,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238772</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710512</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167234</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="38">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903955</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>970.9960463903955</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>805.1180535919182</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>635.3600498426554</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>458.6529958044114</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>293.0617208302391</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004233</v>
@@ -7415,22 +7415,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883919</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716168</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7600,13 +7600,13 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
         <v>1230.992967093271</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7652,46 +7652,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1008.757289365886</v>
+        <v>1090.187678435287</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>917.6259669185121</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>751.7479741200348</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>581.989970370772</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>405.2829163325281</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>239.6916413583558</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7807,10 +7807,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
         <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303137</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173567</v>
+        <v>2026.844126920462</v>
       </c>
       <c r="W46" t="n">
-        <v>1673.387333437352</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X46" t="n">
-        <v>1427.995578770765</v>
+        <v>1509.425967840166</v>
       </c>
       <c r="Y46" t="n">
-        <v>1200.575908084873</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.998787505433</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>334.0017078458038</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274541</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866493</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314099</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314099</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314098</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062446</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314099</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314099</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,22 +8608,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>115.2072824288655</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314099</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790749</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949900158</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>267.5985112554908</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>268.0111327346223</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142715</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10.96843159933792</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,16 +23741,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>49.7319563997999</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>80.50874676570896</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>111.423652304582</v>
       </c>
     </row>
     <row r="20">
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>268.011132734622</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957341</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>117.7661826744364</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142711</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>77.73307607587149</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>35.15749310933348</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.36113619101499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.4833845311634</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>37.38363054573573</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="D43" t="n">
-        <v>22.86827275269502</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>90.22000922290029</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>195.0325855607185</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>593990.5801167197</v>
+        <v>593990.5801167198</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>593990.5801167197</v>
+        <v>593990.5801167199</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619057.6613613891</v>
+        <v>619057.661361389</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619057.661361389</v>
+        <v>619057.6613613891</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619057.6613613891</v>
+        <v>619057.661361389</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>308284.7089369848</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369849</v>
       </c>
       <c r="E2" t="n">
-        <v>290676.2413337138</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="F2" t="n">
-        <v>290676.2413337138</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="G2" t="n">
         <v>290676.2413337139</v>
       </c>
       <c r="H2" t="n">
-        <v>290676.2413337139</v>
+        <v>290676.241333714</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390642</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200283</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520271</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784496</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510024</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104674</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715077</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897629</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="F4" t="n">
         <v>773.6821211687732</v>
@@ -26442,13 +26442,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814197</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846972</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26509,7 +26509,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62499.47312970727</v>
+        <v>-94165.06779656801</v>
       </c>
       <c r="C6" t="n">
-        <v>79691.82753000269</v>
+        <v>103227.2337830699</v>
       </c>
       <c r="D6" t="n">
-        <v>74651.57612674939</v>
+        <v>120567.7781569766</v>
       </c>
       <c r="E6" t="n">
-        <v>-7416.076817129608</v>
+        <v>54571.58316998636</v>
       </c>
       <c r="F6" t="n">
-        <v>216383.2169348975</v>
+        <v>216306.6583801008</v>
       </c>
       <c r="G6" t="n">
-        <v>216383.2169348976</v>
+        <v>216306.6583801008</v>
       </c>
       <c r="H6" t="n">
-        <v>216383.2169348976</v>
+        <v>216306.6583801009</v>
       </c>
       <c r="I6" t="n">
-        <v>206053.8242495628</v>
+        <v>206030.5999101802</v>
       </c>
       <c r="J6" t="n">
-        <v>113404.0745374122</v>
+        <v>63787.48605740625</v>
       </c>
       <c r="K6" t="n">
-        <v>224418.5398824024</v>
+        <v>210581.3069751748</v>
       </c>
       <c r="L6" t="n">
-        <v>215470.9287938923</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="M6" t="n">
-        <v>37627.5532719351</v>
+        <v>89405.3709300164</v>
       </c>
       <c r="N6" t="n">
-        <v>224418.5398824025</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="O6" t="n">
-        <v>224418.5398824025</v>
+        <v>224395.3155430198</v>
       </c>
       <c r="P6" t="n">
-        <v>224418.5398824025</v>
+        <v>224395.3155430198</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314099</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130551</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825295</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130551</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825293</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130551</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825295</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>261.5746989843632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.237799521784765</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27585,7 +27585,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>102.5556725883431</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.6845917767112</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>60.32271119795621</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>185.8757317238697</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.44200416663388</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>147.1122069234081</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,13 +27904,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>335.9320767790319</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>23.65030257151109</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>95.21349374108624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="36">
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.998787505433</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>334.0017078458038</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274541</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866493</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314099</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314099</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314098</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062446</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314099</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314099</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>115.2072824288655</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314099</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790749</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949900158</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36996,16 +36996,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37236,16 +37236,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
